--- a/ComparacionAckleyBeale.xlsx
+++ b/ComparacionAckleyBeale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Iteracion</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Min Beale</t>
+  </si>
+  <si>
+    <t>SW-100</t>
+  </si>
+  <si>
+    <t>sw-5000</t>
   </si>
 </sst>
 </file>
@@ -90,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,11 +988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43400576"/>
-        <c:axId val="43422848"/>
+        <c:axId val="40424576"/>
+        <c:axId val="40426112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43400576"/>
+        <c:axId val="40424576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43422848"/>
+        <c:crossAx val="40426112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43422848"/>
+        <c:axId val="40426112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43400576"/>
+        <c:crossAx val="40424576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,11 +1753,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100553472"/>
-        <c:axId val="100555008"/>
+        <c:axId val="40801024"/>
+        <c:axId val="40802560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100553472"/>
+        <c:axId val="40801024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100555008"/>
+        <c:crossAx val="40802560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1766,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100555008"/>
+        <c:axId val="40802560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100553472"/>
+        <c:crossAx val="40801024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,16 +1812,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438148</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>669469</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:rowOff>121782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>117020</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1833,16 +1842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>53068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274865</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>128589</xdr:rowOff>
+      <xdr:rowOff>19732</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2153,18 +2162,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2204,8 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2200,8 +2213,11 @@
       <c r="I2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2220,7 +2236,7 @@
       <c r="F3" s="1">
         <v>0.525610731</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.33814444100000002</v>
       </c>
       <c r="H3" s="1">
@@ -2229,8 +2245,11 @@
       <c r="I3" s="1">
         <v>0.466263869</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>0.435668685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2249,7 +2268,7 @@
       <c r="F4" s="1">
         <v>0.44276368500000002</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.26043757200000001</v>
       </c>
       <c r="H4">
@@ -2258,8 +2277,11 @@
       <c r="I4">
         <v>0.298377701</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <v>0.34063679800000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2278,7 +2300,7 @@
       <c r="F5" s="1">
         <v>0.34023347399999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.22342637700000001</v>
       </c>
       <c r="H5">
@@ -2287,8 +2309,11 @@
       <c r="I5">
         <v>0.224469736</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>0.26941009799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2307,7 +2332,7 @@
       <c r="F6" s="1">
         <v>0.24802131199999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.21435340999999999</v>
       </c>
       <c r="H6">
@@ -2316,8 +2341,11 @@
       <c r="I6">
         <v>0.18533303100000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>0.216160558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2336,7 +2364,7 @@
       <c r="F7" s="1">
         <v>0.19220612100000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.149324915</v>
       </c>
       <c r="H7">
@@ -2345,8 +2373,11 @@
       <c r="I7">
         <v>0.14774278800000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>0.17716511300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2365,7 +2396,7 @@
       <c r="F8" s="1">
         <v>0.158775945</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.118033107</v>
       </c>
       <c r="H8">
@@ -2374,8 +2405,11 @@
       <c r="I8">
         <v>0.12814404400000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>0.14782408399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2394,7 +2428,7 @@
       <c r="F9" s="1">
         <v>0.16162925</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.13229949599999999</v>
       </c>
       <c r="H9">
@@ -2403,8 +2437,11 @@
       <c r="I9">
         <v>0.10500602000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>0.124801805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2423,7 +2460,7 @@
       <c r="F10" s="1">
         <v>0.147567742</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.12700352600000001</v>
       </c>
       <c r="H10">
@@ -2432,8 +2469,11 @@
       <c r="I10">
         <v>9.0349547000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <v>0.10780824999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2452,7 +2492,7 @@
       <c r="F11" s="1">
         <v>0.142865671</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>9.6909844999999994E-2</v>
       </c>
       <c r="H11">
@@ -2461,8 +2501,11 @@
       <c r="I11">
         <v>7.9980548999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <v>9.2985400999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2481,7 +2524,7 @@
       <c r="F12" s="1">
         <v>0.14038019500000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>8.3459633000000005E-2</v>
       </c>
       <c r="H12">
@@ -2490,8 +2533,11 @@
       <c r="I12">
         <v>6.2639100000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <v>8.0955140999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2510,7 +2556,7 @@
       <c r="F13" s="1">
         <v>0.14342534100000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>6.6777322E-2</v>
       </c>
       <c r="H13">
@@ -2519,8 +2565,11 @@
       <c r="I13">
         <v>5.9140742000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <v>7.2219729999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2539,7 +2588,7 @@
       <c r="F14" s="1">
         <v>0.13304002500000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>6.4728521999999997E-2</v>
       </c>
       <c r="H14">
@@ -2548,8 +2597,11 @@
       <c r="I14">
         <v>5.6385062E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <v>6.4437927000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2568,7 +2620,7 @@
       <c r="F15" s="1">
         <v>0.12180919</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>6.4509586999999993E-2</v>
       </c>
       <c r="H15">
@@ -2577,8 +2629,11 @@
       <c r="I15">
         <v>5.1574177999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <v>5.7662221999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2597,7 +2652,7 @@
       <c r="F16" s="1">
         <v>0.11641952699999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>5.9516590000000001E-2</v>
       </c>
       <c r="H16">
@@ -2606,8 +2661,11 @@
       <c r="I16">
         <v>4.9331742999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <v>5.2420658000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2626,7 +2684,7 @@
       <c r="F17" s="1">
         <v>0.11519671400000001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>5.8573207000000002E-2</v>
       </c>
       <c r="H17">
@@ -2635,8 +2693,11 @@
       <c r="I17">
         <v>4.5535566999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <v>4.8072206999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2655,7 +2716,7 @@
       <c r="F18" s="1">
         <v>0.113118437</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>5.7708965000000001E-2</v>
       </c>
       <c r="H18">
@@ -2664,8 +2725,11 @@
       <c r="I18">
         <v>4.3093968000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <v>4.3837648999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2684,7 +2748,7 @@
       <c r="F19" s="1">
         <v>0.111287619</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>4.9382868000000003E-2</v>
       </c>
       <c r="H19">
@@ -2693,8 +2757,11 @@
       <c r="I19">
         <v>4.1918906999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <v>4.1107335000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2713,7 +2780,7 @@
       <c r="F20" s="1">
         <v>0.11015132399999999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>4.5420714000000001E-2</v>
       </c>
       <c r="H20">
@@ -2722,8 +2789,11 @@
       <c r="I20">
         <v>3.6463944999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <v>3.8524041000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2742,7 +2812,7 @@
       <c r="F21" s="1">
         <v>0.10157482299999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>4.3048427E-2</v>
       </c>
       <c r="H21">
@@ -2751,8 +2821,11 @@
       <c r="I21">
         <v>3.4315221E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <v>3.6054032999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2771,7 +2844,7 @@
       <c r="F22" s="1">
         <v>0.10004971</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>4.0402057999999998E-2</v>
       </c>
       <c r="H22">
@@ -2780,8 +2853,11 @@
       <c r="I22">
         <v>3.1042363999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2">
+        <v>3.4133299999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2800,7 +2876,7 @@
       <c r="F23" s="1">
         <v>9.8445554000000005E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>3.8260963000000002E-2</v>
       </c>
       <c r="H23">
@@ -2809,8 +2885,11 @@
       <c r="I23">
         <v>3.0060185E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <v>3.2674091000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2829,7 +2908,7 @@
       <c r="F24" s="1">
         <v>9.7203466000000002E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>3.1816947999999998E-2</v>
       </c>
       <c r="H24">
@@ -2838,8 +2917,11 @@
       <c r="I24">
         <v>2.9249028E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <v>3.0883549E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2858,7 +2940,7 @@
       <c r="F25" s="1">
         <v>9.5847271999999997E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>3.4912358999999997E-2</v>
       </c>
       <c r="H25">
@@ -2867,8 +2949,11 @@
       <c r="I25">
         <v>2.7953819000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2">
+        <v>2.9527088E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2887,7 +2972,7 @@
       <c r="F26" s="1">
         <v>9.4476934999999998E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>3.0544874999999999E-2</v>
       </c>
       <c r="H26">
@@ -2896,8 +2981,11 @@
       <c r="I26">
         <v>2.7792414000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <v>2.7821687000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2916,7 +3004,7 @@
       <c r="F27" s="1">
         <v>9.3094519000000001E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>3.1478324000000002E-2</v>
       </c>
       <c r="H27">
@@ -2925,8 +3013,11 @@
       <c r="I27">
         <v>2.5137910999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2">
+        <v>2.6839532999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2945,7 +3036,7 @@
       <c r="F28" s="1">
         <v>9.1670704000000006E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>2.7929103E-2</v>
       </c>
       <c r="H28">
@@ -2954,8 +3045,11 @@
       <c r="I28">
         <v>2.3018678000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <v>2.5735806E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2974,7 +3068,7 @@
       <c r="F29" s="1">
         <v>8.6887978000000005E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>2.9248821000000001E-2</v>
       </c>
       <c r="H29">
@@ -2983,8 +3077,11 @@
       <c r="I29">
         <v>2.2073476000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2">
+        <v>2.4693471000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3003,7 +3100,7 @@
       <c r="F30" s="1">
         <v>8.6615448999999997E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>2.8636094000000001E-2</v>
       </c>
       <c r="H30">
@@ -3012,8 +3109,11 @@
       <c r="I30">
         <v>2.1389785000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2">
+        <v>2.3747632000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3032,7 +3132,7 @@
       <c r="F31" s="1">
         <v>8.5694493999999996E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>2.7283368999999998E-2</v>
       </c>
       <c r="H31">
@@ -3041,8 +3141,11 @@
       <c r="I31">
         <v>2.0607027E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2">
+        <v>2.2932853E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3061,7 +3164,7 @@
       <c r="F32" s="1">
         <v>8.4883320999999998E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>2.5371187999999999E-2</v>
       </c>
       <c r="H32">
@@ -3070,8 +3173,11 @@
       <c r="I32">
         <v>2.0466127000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2">
+        <v>2.224307E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3090,7 +3196,7 @@
       <c r="F33" s="1">
         <v>8.4996158000000002E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>2.5438806000000001E-2</v>
       </c>
       <c r="H33">
@@ -3099,8 +3205,11 @@
       <c r="I33">
         <v>2.0693882E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2">
+        <v>2.1603407000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3119,7 +3228,7 @@
       <c r="F34" s="1">
         <v>8.4438434000000007E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>2.5093976E-2</v>
       </c>
       <c r="H34">
@@ -3128,8 +3237,11 @@
       <c r="I34">
         <v>1.9260830999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2">
+        <v>2.0920599000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3148,7 +3260,7 @@
       <c r="F35" s="1">
         <v>8.3887667999999999E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>2.1227356999999999E-2</v>
       </c>
       <c r="H35">
@@ -3157,8 +3269,11 @@
       <c r="I35">
         <v>1.8616985999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2">
+        <v>2.0345070999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3177,7 +3292,7 @@
       <c r="F36" s="1">
         <v>8.2092617000000007E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>2.0648877999999999E-2</v>
       </c>
       <c r="H36">
@@ -3186,8 +3301,11 @@
       <c r="I36">
         <v>1.8285783E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2">
+        <v>2.0062559000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3206,7 +3324,7 @@
       <c r="F37" s="1">
         <v>8.2101593E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>2.1321245999999999E-2</v>
       </c>
       <c r="H37">
@@ -3215,8 +3333,11 @@
       <c r="I37">
         <v>1.8193864000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2">
+        <v>1.944307E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3235,7 +3356,7 @@
       <c r="F38" s="1">
         <v>8.1814893E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>2.1278464E-2</v>
       </c>
       <c r="H38">
@@ -3244,8 +3365,11 @@
       <c r="I38">
         <v>1.6842784E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2">
+        <v>1.9019833999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3264,7 +3388,7 @@
       <c r="F39" s="1">
         <v>8.1173613000000006E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>2.0331319E-2</v>
       </c>
       <c r="H39">
@@ -3273,8 +3397,11 @@
       <c r="I39">
         <v>1.6664788E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2">
+        <v>1.8618584000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3293,7 +3420,7 @@
       <c r="F40" s="1">
         <v>8.0276012999999993E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>1.9232862999999999E-2</v>
       </c>
       <c r="H40">
@@ -3302,8 +3429,11 @@
       <c r="I40">
         <v>1.650339E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2">
+        <v>1.8335336000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3322,7 +3452,7 @@
       <c r="F41" s="1">
         <v>7.9582271999999996E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>1.8532130000000001E-2</v>
       </c>
       <c r="H41">
@@ -3331,8 +3461,11 @@
       <c r="I41">
         <v>1.6316807999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <v>1.8005812999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3351,7 +3484,7 @@
       <c r="F42" s="1">
         <v>7.9368621E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>1.7975675999999999E-2</v>
       </c>
       <c r="H42">
@@ -3360,8 +3493,11 @@
       <c r="I42">
         <v>1.5614728E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2">
+        <v>1.7687133000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3380,7 +3516,7 @@
       <c r="F43" s="1">
         <v>7.9188824000000005E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>1.7592678E-2</v>
       </c>
       <c r="H43">
@@ -3389,8 +3525,11 @@
       <c r="I43">
         <v>1.5602002E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2">
+        <v>1.7447279999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3409,7 +3548,7 @@
       <c r="F44" s="1">
         <v>7.8395504000000005E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>1.7665775000000002E-2</v>
       </c>
       <c r="H44">
@@ -3418,8 +3557,11 @@
       <c r="I44">
         <v>1.5704984000000002E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2">
+        <v>1.7176146999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3438,7 +3580,7 @@
       <c r="F45" s="1">
         <v>7.8335356999999994E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>1.6272945E-2</v>
       </c>
       <c r="H45">
@@ -3447,8 +3589,11 @@
       <c r="I45">
         <v>1.5351382E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2">
+        <v>1.6842942999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3467,7 +3612,7 @@
       <c r="F46" s="1">
         <v>7.8128285000000006E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>1.5886698000000001E-2</v>
       </c>
       <c r="H46">
@@ -3476,8 +3621,11 @@
       <c r="I46">
         <v>1.4556266999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2">
+        <v>1.6545072000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3496,7 +3644,7 @@
       <c r="F47" s="1">
         <v>7.7186521999999994E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>1.6112247999999999E-2</v>
       </c>
       <c r="H47">
@@ -3505,8 +3653,11 @@
       <c r="I47">
         <v>1.4364622000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2">
+        <v>1.6292033000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3525,7 +3676,7 @@
       <c r="F48" s="1">
         <v>7.6962132000000003E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>1.5866960999999999E-2</v>
       </c>
       <c r="H48">
@@ -3534,8 +3685,11 @@
       <c r="I48">
         <v>1.4377689000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="2">
+        <v>1.6018113E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3554,7 +3708,7 @@
       <c r="F49" s="1">
         <v>7.6636213999999994E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>1.5139461E-2</v>
       </c>
       <c r="H49">
@@ -3563,8 +3717,11 @@
       <c r="I49">
         <v>1.4322577E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2">
+        <v>1.578603E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3583,7 +3740,7 @@
       <c r="F50" s="1">
         <v>7.6485243999999994E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>1.4683417000000001E-2</v>
       </c>
       <c r="H50">
@@ -3592,8 +3749,11 @@
       <c r="I50">
         <v>1.4309004E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2">
+        <v>1.5564794E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3612,7 +3772,7 @@
       <c r="F51" s="1">
         <v>7.6082765999999996E-2</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>1.5245317E-2</v>
       </c>
       <c r="H51">
@@ -3621,8 +3781,11 @@
       <c r="I51">
         <v>1.4285551E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2">
+        <v>1.5271056999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3641,7 +3804,7 @@
       <c r="F52" s="1">
         <v>7.6056758000000002E-2</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>1.4139511E-2</v>
       </c>
       <c r="H52">
@@ -3650,8 +3813,11 @@
       <c r="I52">
         <v>1.4170413E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2">
+        <v>1.5145540000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53">
         <f>MIN(B3:B52)</f>
         <v>0.12171361999999999</v>
@@ -3685,7 +3851,7 @@
         <v>1.4170413E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3860,7 @@
         <v>7.6031708000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4487,12 +4653,168 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AX2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.435668685</v>
+      </c>
+      <c r="B2">
+        <v>0.34063679800000002</v>
+      </c>
+      <c r="C2">
+        <v>0.26941009799999999</v>
+      </c>
+      <c r="D2">
+        <v>0.216160558</v>
+      </c>
+      <c r="E2">
+        <v>0.17716511300000001</v>
+      </c>
+      <c r="F2">
+        <v>0.14782408399999999</v>
+      </c>
+      <c r="G2">
+        <v>0.124801805</v>
+      </c>
+      <c r="H2">
+        <v>0.10780824999999999</v>
+      </c>
+      <c r="I2">
+        <v>9.2985400999999995E-2</v>
+      </c>
+      <c r="J2">
+        <v>8.0955140999999994E-2</v>
+      </c>
+      <c r="K2">
+        <v>7.2219729999999996E-2</v>
+      </c>
+      <c r="L2">
+        <v>6.4437927000000006E-2</v>
+      </c>
+      <c r="M2">
+        <v>5.7662221999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>5.2420658000000002E-2</v>
+      </c>
+      <c r="O2">
+        <v>4.8072206999999999E-2</v>
+      </c>
+      <c r="P2">
+        <v>4.3837648999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>4.1107335000000002E-2</v>
+      </c>
+      <c r="R2">
+        <v>3.8524041000000002E-2</v>
+      </c>
+      <c r="S2">
+        <v>3.6054032999999999E-2</v>
+      </c>
+      <c r="T2">
+        <v>3.4133299999999998E-2</v>
+      </c>
+      <c r="U2">
+        <v>3.2674091000000002E-2</v>
+      </c>
+      <c r="V2">
+        <v>3.0883549E-2</v>
+      </c>
+      <c r="W2">
+        <v>2.9527088E-2</v>
+      </c>
+      <c r="X2">
+        <v>2.7821687000000001E-2</v>
+      </c>
+      <c r="Y2">
+        <v>2.6839532999999999E-2</v>
+      </c>
+      <c r="Z2">
+        <v>2.5735806E-2</v>
+      </c>
+      <c r="AA2">
+        <v>2.4693471000000002E-2</v>
+      </c>
+      <c r="AB2">
+        <v>2.3747632000000001E-2</v>
+      </c>
+      <c r="AC2">
+        <v>2.2932853E-2</v>
+      </c>
+      <c r="AD2">
+        <v>2.224307E-2</v>
+      </c>
+      <c r="AE2">
+        <v>2.1603407000000002E-2</v>
+      </c>
+      <c r="AF2">
+        <v>2.0920599000000002E-2</v>
+      </c>
+      <c r="AG2">
+        <v>2.0345070999999999E-2</v>
+      </c>
+      <c r="AH2">
+        <v>2.0062559000000001E-2</v>
+      </c>
+      <c r="AI2">
+        <v>1.944307E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.9019833999999999E-2</v>
+      </c>
+      <c r="AK2">
+        <v>1.8618584000000001E-2</v>
+      </c>
+      <c r="AL2">
+        <v>1.8335336000000001E-2</v>
+      </c>
+      <c r="AM2">
+        <v>1.8005812999999999E-2</v>
+      </c>
+      <c r="AN2">
+        <v>1.7687133000000001E-2</v>
+      </c>
+      <c r="AO2">
+        <v>1.7447279999999999E-2</v>
+      </c>
+      <c r="AP2">
+        <v>1.7176146999999999E-2</v>
+      </c>
+      <c r="AQ2">
+        <v>1.6842942999999999E-2</v>
+      </c>
+      <c r="AR2">
+        <v>1.6545072000000001E-2</v>
+      </c>
+      <c r="AS2">
+        <v>1.6292033000000001E-2</v>
+      </c>
+      <c r="AT2">
+        <v>1.6018113E-2</v>
+      </c>
+      <c r="AU2">
+        <v>1.578603E-2</v>
+      </c>
+      <c r="AV2">
+        <v>1.5564794E-2</v>
+      </c>
+      <c r="AW2">
+        <v>1.5271056999999999E-2</v>
+      </c>
+      <c r="AX2">
+        <v>1.5145540000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>